--- a/backend/output_timetables/sem3_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem3_CSE_timetable.xlsx
@@ -472,27 +472,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>HS261 (Elective)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HS261 (Elective)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>CS263</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CS261</t>
         </is>
       </c>
     </row>
@@ -504,27 +504,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CS251 (Elective)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>CS263</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CS261</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>CS251 (Elective)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>MA262</t>
         </is>
       </c>
     </row>
@@ -568,17 +568,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>CS261</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>HS261 (Elective)</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS251 (Elective)</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>MA261</t>
         </is>
       </c>
     </row>
@@ -610,12 +610,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS261 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -632,27 +632,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>HS261 (Elective)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>MA262</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CS264</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS264</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>CS263</t>
         </is>
       </c>
     </row>
@@ -674,17 +674,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CS264 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>CS251 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>HS261 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -742,17 +742,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>HS261 (Elective)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HS261 (Elective)</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS261</t>
         </is>
       </c>
     </row>
@@ -774,27 +774,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS251 (Elective)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>CS251 (Elective)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>MA262</t>
         </is>
       </c>
     </row>
@@ -843,22 +843,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HS261 (Elective)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS251 (Elective)</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262</t>
         </is>
       </c>
     </row>
@@ -880,12 +880,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS264 (Tutorial)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS261 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -902,27 +902,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>HS261 (Elective)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>CS263</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CS263</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CS261</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS261</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS264</t>
         </is>
       </c>
     </row>
@@ -939,22 +939,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>CS251 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>HS261 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -3020,12 +3020,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -3057,12 +3057,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3390,12 +3390,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3427,7 +3427,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">

--- a/backend/output_timetables/sem3_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem3_CSE_timetable.xlsx
@@ -472,27 +472,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>HS261 (Elective)</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>HS261 (Elective)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>CS261</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS262</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS251 (Elective)</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,17 +514,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>CS264</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CS251 (Elective)</t>
         </is>
       </c>
     </row>
@@ -568,22 +568,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS251 (Elective)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>CS251 (Elective)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>CS261</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CS263</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -605,17 +605,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>CS251 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HS261 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -637,22 +637,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>HS261 (Elective)</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -674,17 +674,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>CS264 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>HS261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CS264 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>CS251 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -742,27 +742,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>HS261 (Elective)</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CS263</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>HS261 (Elective)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>CS264</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CS261</t>
         </is>
       </c>
     </row>
@@ -774,27 +774,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS251 (Elective)</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS251 (Elective)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -838,27 +838,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>CS251 (Elective)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CS251 (Elective)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>CS261</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CS263</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>MA262</t>
         </is>
       </c>
     </row>
@@ -875,22 +875,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>CS251 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>CS264 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HS261 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -902,27 +902,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>CS262</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CS264</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>HS261 (Elective)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS263</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>CS264</t>
         </is>
       </c>
     </row>
@@ -949,12 +949,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>HS261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>CS251 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1023,6 +1023,11 @@
           <t>Instructor</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1042,7 +1047,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Department: CSE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1064,6 +1069,11 @@
           <t>Anand Barangi</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1083,7 +1093,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Department: CSE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1105,6 +1115,11 @@
           <t>Somen Bhattacharjee</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1124,7 +1139,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Department: CSE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1146,6 +1161,11 @@
           <t>Suvadip Hazra</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1165,7 +1185,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Department: CSE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1187,6 +1207,11 @@
           <t>Sunil P V, Vivekraj</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1206,7 +1231,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Department: CSE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1228,6 +1253,11 @@
           <t>Malay, Pramod Y</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1247,7 +1277,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Department: CSE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1269,6 +1299,11 @@
           <t>Prabhu Prasad B M</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1310,6 +1345,11 @@
           <t>TBD</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1351,6 +1391,11 @@
           <t>Pankaj</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1392,6 +1437,11 @@
           <t>Rajesh Kumar</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1433,6 +1483,11 @@
           <t>Sibasankar Padhy</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1474,6 +1529,11 @@
           <t>Mallikarjun Kande</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1515,6 +1575,11 @@
           <t>Abdul Wahid</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1556,6 +1621,11 @@
           <t>Sandesh P</t>
         </is>
       </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1597,113 +1667,128 @@
           <t>Vivekraj V K</t>
         </is>
       </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Neuro-Linguistics</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0-0-0-0-0</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Leadership I</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0-0-0-0-0</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Jagadeesha R Bhat</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Statistical Programming</t>
+          <t>Sociology for India</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1-0-2-0-2</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1713,146 +1798,166 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Anushree Kini</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Data Handling</t>
+          <t>Social Impact</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2-0-2-0-3</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Siddharth</t>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Holistic Personality</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>1</v>
       </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Electronics Systems</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Utkarsh Khaire</t>
+          <t>Pankaj</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Neuro-Linguistics</t>
+          <t>Introduction of Communication</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1867,33 +1972,38 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1-0-0-0-1</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Manjunath K V</t>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Leadership I</t>
+          <t>Introduction to AI</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1908,33 +2018,38 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1-0-0-0-1</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Jagadeesha R Bhat</t>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sociology for India</t>
+          <t>Electronic Systems</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1949,33 +2064,38 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1-0-0-0-1</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Anushree Kini</t>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Social Impact</t>
+          <t>Data Science with Python</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1990,33 +2110,38 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1-0-0-0-1</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Rajesh Kumar</t>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Holistic Personality</t>
+          <t>User Interaction</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2031,33 +2156,38 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1-0-0-0-1</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="n">
         <v>1</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Rajesh N S</t>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Electronics Systems</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2072,33 +2202,38 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Pankaj</t>
+          <t>Pramod</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Introduction of Communication</t>
+          <t>Compiler Design</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2113,33 +2248,38 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Rajesh Kumar</t>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Introduction to AI</t>
+          <t>Graphs and Social Network</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2154,33 +2294,38 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Sibasankar Padhy</t>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC368</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Electronic Systems</t>
+          <t>Semiconductor Device Modeling</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2195,33 +2340,38 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Mallikarjun Kande</t>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Data Science with Python</t>
+          <t>Advanced Algorithm Design</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2236,33 +2386,38 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Abdul Wahid</t>
+          <t>Suvadip</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>User Interaction</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2291,70 +2446,80 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Sandesh P</t>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Digital Signal Processing</t>
+          <t>Internet of Things</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F33" t="n">
         <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>4</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Sibasankar Padhy</t>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EC302</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Introduction to VLSI Design</t>
+          <t>Cryptography &amp; Information Security</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2373,29 +2538,34 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Jagadish D.N</t>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>DE351</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Introduction to Algorithms</t>
+          <t>User Interactions and Experience Design</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2414,540 +2584,58 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Jagdish R.B</t>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HS201</t>
+          <t>EC358</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Happiness &amp; Wellbeing</t>
+          <t>AI in Biomedical Signal Interpretation</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F36" t="n">
         <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Chandrika Kamath</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Parallel computing</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>3</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>4</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Pramod</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Compiler Design</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>3</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" t="n">
-        <v>4</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Pavan Kumar</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Graphs and Social Network</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>3</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>4</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Utkarsh K</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>EC368</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Semiconductor Device Modeling</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>3</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>4</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Pankaj Kumar</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Advanced Algorithm Design</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>3</v>
-      </c>
-      <c r="G41" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>4</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Suvadip</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Full Stack Development</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>3</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>4</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Manjunath K V</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Internet of Things</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>3</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>4</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Prakash Pawar</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Cryptography &amp; Information Security</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>3</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>4</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Rajendra Hegadi</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>DE351</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>User Interactions and Experience Design</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>3</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Sandesh P</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>EC358</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>AI in Biomedical Signal Interpretation</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>3</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>4</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
           <t>Sibasankar Padhy</t>
         </is>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Multivariable Calculus</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Core</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Branch: General</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>3-1-0-0-2</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>3</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Somen B</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Differential Equations</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Core</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Branch: General</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>3-1-0-0-2</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Anand Barangi</t>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
@@ -3020,7 +2708,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3057,12 +2745,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -3099,7 +2787,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -3353,12 +3041,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3395,7 +3083,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3427,12 +3115,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/backend/output_timetables/sem3_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem3_CSE_timetable.xlsx
@@ -472,27 +472,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HS261 (Elective)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>MA262</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>HS261 (Elective)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>HS261 (Elective)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CS261</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS263</t>
         </is>
       </c>
     </row>
@@ -504,22 +504,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>MA261</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CS263</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -573,22 +573,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>CS251 (Elective)</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>CS261</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CS264</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262</t>
         </is>
       </c>
     </row>
@@ -600,14 +600,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>HS261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CS251 (Tutorial)</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Free</t>
@@ -620,7 +620,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS264 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -632,22 +632,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>CS264</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CS261</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -674,17 +674,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>HS261 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS251 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -742,27 +742,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HS261 (Elective)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>CS263</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>HS261 (Elective)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>HS261 (Elective)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CS262</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS261</t>
         </is>
       </c>
     </row>
@@ -774,27 +774,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>CS263</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CS263</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS264</t>
         </is>
       </c>
     </row>
@@ -843,22 +843,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>CS251 (Elective)</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>CS264</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -870,14 +870,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>HS261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CS251 (Tutorial)</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Free</t>
@@ -890,7 +890,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -902,27 +902,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>MA261</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CS261</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CS261</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS264</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>CS262</t>
         </is>
       </c>
     </row>
@@ -934,27 +934,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>CS264 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>HS261 (Tutorial)</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS251 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2782,12 +2782,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -3115,12 +3115,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">

--- a/backend/output_timetables/sem3_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem3_CSE_timetable.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Course_Summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Elective_Coordination" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Branch_Info" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -474,22 +477,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS262</t>
         </is>
       </c>
     </row>
@@ -506,22 +509,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -565,27 +568,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CS251 (Elective)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>CS263</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CS251 (Elective)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>MA262</t>
         </is>
       </c>
     </row>
@@ -617,7 +620,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS264 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -629,27 +632,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CS251 (Elective)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>CS264</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CS261</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS251 (Elective)</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>CS263</t>
         </is>
       </c>
     </row>
@@ -681,7 +684,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -749,12 +752,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -776,12 +779,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -791,7 +794,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -835,12 +838,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -855,7 +858,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS262</t>
         </is>
       </c>
     </row>
@@ -899,27 +902,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>CS264</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CS251 (Elective)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>CS264</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CS262</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS251 (Elective)</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>MA262</t>
         </is>
       </c>
     </row>
@@ -931,27 +934,4016 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>CS264 (Tutorial)</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CS251 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Branch Specificity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Total Credits</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Instructor</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Anand Barangi</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Somen Bhattacharjee</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Operating systems</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3-0-0-4-2</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Suvadip Hazra</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Software design</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2-0-2-0-3</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Sunil P V, Vivekraj</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Design &amp; Analysis of Algorithms</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Malay, Pramod Y</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Prabhu Prasad B M</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HSS (Ethics &amp; 2+1)</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS251 (Tutorial)</t>
+          <t>0-0-0-0-0</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Electronics Systems</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Pankaj</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Introduction of Communication</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Introduction to AI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Electronic Systems</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2D Computer Graphics</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Vivekraj V K</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Neuro-Linguistics</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Leadership I</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Jagadeesha R Bhat</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sociology for India</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Anushree Kini</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Social Impact</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Holistic Personality</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Electronics Systems</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Pankaj</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Introduction of Communication</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Introduction to AI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Electronic Systems</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Graphs and Social Network</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Semiconductor Device Modeling</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>3</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Advanced Algorithm Design</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Information Security</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>User Interactions and Experience Design</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Signal Interpretation</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Elective Course</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Session Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Branches</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Lecture 1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.5 hours</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ALL (Common for All Branches)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lecture 2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.5 hours</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ALL (Common for All Branches)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ALL (Common for All Branches)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Lecture 1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.5 hours</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>ALL (Common for All Branches)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Lecture 2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.5 hours</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>ALL (Common for All Branches)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>ALL (Common for All Branches)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Instructor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Anand Barangi</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Somen Bhattacharjee</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Operating systems</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3-0-0-4-2</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Suvadip Hazra</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Software design</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2-0-2-0-3</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Sunil P V, Vivekraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Design &amp; Analysis of Algorithms</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Malay, Pramod Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Prabhu Prasad B M</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>HSS (Ethics &amp; 2+1)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0-0-0-0-0</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Electronics Systems</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pankaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Introduction of Communication</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Introduction to AI</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Electronic Systems</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2D Computer Graphics</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Vivekraj V K</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Neuro-Linguistics</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Leadership I</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Jagadeesha R Bhat</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Sociology for India</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Anushree Kini</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Social Impact</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Holistic Personality</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Electronics Systems</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Pankaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Introduction of Communication</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Introduction to AI</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Electronic Systems</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Graphs and Social Network</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Semiconductor Device Modeling</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Advanced Algorithm Design</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>4</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Information Security</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>4</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>User Interactions and Experience Design</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>4</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Signal Interpretation</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>4</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem3_CSE_timetable.xlsx
@@ -479,17 +479,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -511,17 +511,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS264</t>
         </is>
       </c>
     </row>
@@ -565,17 +565,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS263</t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS264 (Tutorial)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA261</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -744,22 +744,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>CS264</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CS264</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CS263</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CS262</t>
         </is>
       </c>
     </row>
@@ -776,22 +776,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS263</t>
         </is>
       </c>
     </row>
@@ -840,14 +840,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>MA261</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>CS251 (Elective)</t>
@@ -855,7 +855,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -899,12 +899,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS264 (Tutorial)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263 (Tutorial)</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem3_CSE_timetable.xlsx
@@ -62,7 +62,7 @@
       <sz val="13"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill/>
     </fill>
@@ -137,6 +137,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="0045B7D1"/>
+        <bgColor rgb="0045B7D1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="008f84e0"/>
         <bgColor rgb="008f84e0"/>
       </patternFill>
@@ -179,8 +185,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00d484e0"/>
-        <bgColor rgb="00d484e0"/>
+        <fgColor rgb="0054A0FF"/>
+        <bgColor rgb="0054A0FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -228,18 +234,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -327,6 +333,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1313,7 +1322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1327,6 +1336,7 @@
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="29" customWidth="1" min="5" max="5"/>
     <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1360,6 +1370,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -1392,6 +1403,7 @@
           <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -1424,6 +1436,7 @@
           <t>CS264 [C202]</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -1456,6 +1469,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -1488,6 +1502,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -1497,13 +1512,7 @@
       </c>
       <c r="B6" s="15" t="inlineStr">
         <is>
-          <t>EC251 [C202]
-EC252 [C203]
-CS253 [C204]
-EC254 [C205]
-CS152 [C302]
-ASD352 [C303]
-CS251 [C304]</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C6" s="16" t="inlineStr">
@@ -1513,13 +1522,7 @@
       </c>
       <c r="D6" s="15" t="inlineStr">
         <is>
-          <t>EC251 [C202]
-EC252 [C203]
-CS253 [C204]
-EC254 [C205]
-CS152 [C302]
-ASD352 [C303]
-CS251 [C304]</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
@@ -1532,6 +1535,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -1546,13 +1550,7 @@
       </c>
       <c r="C7" s="15" t="inlineStr">
         <is>
-          <t>EC251 (Tutorial) [C202]
-EC252 (Tutorial) [C203]
-CS253 (Tutorial) [C204]
-EC254 (Tutorial) [C205]
-CS152 (Tutorial) [C302]
-ASD352 (Tutorial) [C303]
-CS251 (Tutorial) [C304]</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
@@ -1570,6 +1568,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -1589,7 +1588,7 @@
       </c>
       <c r="D8" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L207]</t>
+          <t>CS262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -1602,6 +1601,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L207]</t>
+          <t>CS262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -1634,6 +1634,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -1666,6 +1667,7 @@
           <t>MINOR: Design [C101]</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -1674,6 +1676,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -1682,6 +1685,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="17" t="inlineStr">
@@ -1694,6 +1698,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="18" t="inlineStr">
@@ -1706,6 +1711,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="19" t="inlineStr">
@@ -1728,8 +1734,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="20" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="20" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="20" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="21" t="inlineStr">
@@ -1752,8 +1771,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="22" t="inlineStr">
@@ -1776,8 +1808,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="23" t="inlineStr">
@@ -1800,8 +1845,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="inlineStr">
@@ -1824,8 +1882,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="25" t="inlineStr">
@@ -1848,8 +1919,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="26" t="inlineStr">
@@ -1872,8 +1956,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="n"/>
@@ -1882,6 +1979,7 @@
       <c r="D22" s="8" t="n"/>
       <c r="E22" s="8" t="n"/>
       <c r="F22" s="8" t="n"/>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="18" t="inlineStr">
@@ -1894,6 +1992,7 @@
       <c r="D23" s="8" t="n"/>
       <c r="E23" s="8" t="n"/>
       <c r="F23" s="8" t="n"/>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="19" t="inlineStr">
@@ -1926,6 +2025,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -1938,14 +2038,14 @@
           <t>Electronics Systems design-1</t>
         </is>
       </c>
-      <c r="C25" s="15" t="inlineStr">
+      <c r="C25" s="27" t="inlineStr">
         <is>
           <t>EC251</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 13:00-14:30 [L402], Wed 13:00-14:30 [L402]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -1958,6 +2058,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -1970,14 +2071,14 @@
           <t>Introduction of RFIC design</t>
         </is>
       </c>
-      <c r="C26" s="27" t="inlineStr">
+      <c r="C26" s="28" t="inlineStr">
         <is>
           <t>EC252</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 13:00-14:30 [L403], Wed 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -1990,6 +2091,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -2002,7 +2104,7 @@
           <t>Introduction to embedded signals</t>
         </is>
       </c>
-      <c r="C27" s="28" t="inlineStr">
+      <c r="C27" s="29" t="inlineStr">
         <is>
           <t>CS253</t>
         </is>
@@ -2022,6 +2124,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -2034,14 +2137,14 @@
           <t>Electronic Systems engineering</t>
         </is>
       </c>
-      <c r="C28" s="29" t="inlineStr">
+      <c r="C28" s="30" t="inlineStr">
         <is>
           <t>EC254</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
+          <t>Mon 13:00-14:30 [L404], Wed 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -2054,6 +2157,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -2066,14 +2170,14 @@
           <t>Data Science with Python</t>
         </is>
       </c>
-      <c r="C29" s="30" t="inlineStr">
+      <c r="C29" s="31" t="inlineStr">
         <is>
           <t>CS152</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C302], Wed 13:00-14:30 [C302]</t>
+          <t>Mon 13:00-14:30 [L405], Wed 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -2086,6 +2190,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -2098,14 +2203,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C30" s="31" t="inlineStr">
+      <c r="C30" s="32" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C303], Wed 13:00-14:30 [C303]</t>
+          <t>Mon 13:00-14:30 [C004], Wed 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -2118,6 +2223,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -2130,14 +2236,14 @@
           <t>2D Computer Graphics</t>
         </is>
       </c>
-      <c r="C31" s="32" t="inlineStr">
+      <c r="C31" s="33" t="inlineStr">
         <is>
           <t>CS251</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C304], Wed 13:00-14:30 [C304]</t>
+          <t>Mon 13:00-14:30 [L406], Wed 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -2150,10 +2256,11 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
@@ -2167,7 +2274,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2181,6 +2288,7 @@
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="29" customWidth="1" min="5" max="5"/>
     <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2214,6 +2322,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -2246,6 +2355,7 @@
           <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -2278,6 +2388,7 @@
           <t>CS264 [C203]</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -2310,6 +2421,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -2342,6 +2454,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -2351,13 +2464,7 @@
       </c>
       <c r="B6" s="15" t="inlineStr">
         <is>
-          <t>EC251 [C202]
-EC252 [C203]
-CS253 [C204]
-EC254 [C205]
-CS152 [C302]
-ASD352 [C303]
-CS251 [C304]</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C6" s="16" t="inlineStr">
@@ -2367,13 +2474,7 @@
       </c>
       <c r="D6" s="15" t="inlineStr">
         <is>
-          <t>EC251 [C202]
-EC252 [C203]
-CS253 [C204]
-EC254 [C205]
-CS152 [C302]
-ASD352 [C303]
-CS251 [C304]</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
@@ -2386,6 +2487,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -2400,13 +2502,7 @@
       </c>
       <c r="C7" s="15" t="inlineStr">
         <is>
-          <t>EC251 (Tutorial) [C202]
-EC252 (Tutorial) [C203]
-CS253 (Tutorial) [C204]
-EC254 (Tutorial) [C205]
-CS152 (Tutorial) [C302]
-ASD352 (Tutorial) [C303]
-CS251 (Tutorial) [C304]</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
@@ -2424,6 +2520,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -2443,7 +2540,7 @@
       </c>
       <c r="D8" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L207]</t>
+          <t>CS262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -2456,6 +2553,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -2475,7 +2573,7 @@
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L207]</t>
+          <t>CS262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -2488,6 +2586,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -2520,6 +2619,7 @@
           <t>MINOR: Design [C101]</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -2528,6 +2628,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -2536,6 +2637,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="17" t="inlineStr">
@@ -2548,6 +2650,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="18" t="inlineStr">
@@ -2560,6 +2663,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="19" t="inlineStr">
@@ -2582,8 +2686,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="20" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="20" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="20" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="21" t="inlineStr">
@@ -2606,8 +2723,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="22" t="inlineStr">
@@ -2630,8 +2760,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="23" t="inlineStr">
@@ -2654,8 +2797,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="inlineStr">
@@ -2678,8 +2834,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="25" t="inlineStr">
@@ -2702,8 +2871,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="26" t="inlineStr">
@@ -2726,8 +2908,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="n"/>
@@ -2736,6 +2931,7 @@
       <c r="D22" s="8" t="n"/>
       <c r="E22" s="8" t="n"/>
       <c r="F22" s="8" t="n"/>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="18" t="inlineStr">
@@ -2748,6 +2944,7 @@
       <c r="D23" s="8" t="n"/>
       <c r="E23" s="8" t="n"/>
       <c r="F23" s="8" t="n"/>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="19" t="inlineStr">
@@ -2780,6 +2977,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -2792,14 +2990,14 @@
           <t>Electronics Systems design-1</t>
         </is>
       </c>
-      <c r="C25" s="15" t="inlineStr">
+      <c r="C25" s="27" t="inlineStr">
         <is>
           <t>EC251</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 13:00-14:30 [L408], Wed 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -2812,6 +3010,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -2824,14 +3023,14 @@
           <t>Introduction of RFIC design</t>
         </is>
       </c>
-      <c r="C26" s="27" t="inlineStr">
+      <c r="C26" s="28" t="inlineStr">
         <is>
           <t>EC252</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -2844,6 +3043,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -2856,14 +3056,14 @@
           <t>Introduction to embedded signals</t>
         </is>
       </c>
-      <c r="C27" s="28" t="inlineStr">
+      <c r="C27" s="29" t="inlineStr">
         <is>
           <t>CS253</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 13:00-14:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -2876,6 +3076,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -2888,14 +3089,14 @@
           <t>Electronic Systems engineering</t>
         </is>
       </c>
-      <c r="C28" s="29" t="inlineStr">
+      <c r="C28" s="30" t="inlineStr">
         <is>
           <t>EC254</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -2908,6 +3109,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -2920,14 +3122,14 @@
           <t>Data Science with Python</t>
         </is>
       </c>
-      <c r="C29" s="30" t="inlineStr">
+      <c r="C29" s="31" t="inlineStr">
         <is>
           <t>CS152</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C302], Wed 13:00-14:30 [C302]</t>
+          <t>Mon 13:00-14:30 [C001], Wed 13:00-14:30 [C001]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -2940,6 +3142,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -2952,14 +3155,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C30" s="31" t="inlineStr">
+      <c r="C30" s="32" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C303], Wed 13:00-14:30 [C303]</t>
+          <t>Mon 13:00-14:30 [L407], Wed 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -2972,6 +3175,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -2984,14 +3188,14 @@
           <t>2D Computer Graphics</t>
         </is>
       </c>
-      <c r="C31" s="32" t="inlineStr">
+      <c r="C31" s="33" t="inlineStr">
         <is>
           <t>CS251</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C304], Wed 13:00-14:30 [C304]</t>
+          <t>Mon 13:00-14:30 [C003], Wed 13:00-14:30 [C003]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -3004,10 +3208,11 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
@@ -3021,7 +3226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3034,7 +3239,8 @@
     <col width="29" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="29" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3068,6 +3274,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -3100,6 +3307,7 @@
           <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -3132,6 +3340,7 @@
           <t>MA261 [C004]</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -3139,9 +3348,9 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="33" t="inlineStr">
-        <is>
-          <t>HS261 [C101]</t>
+      <c r="B4" s="34" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -3149,9 +3358,9 @@
           <t>CS263 [C202]</t>
         </is>
       </c>
-      <c r="D4" s="33" t="inlineStr">
-        <is>
-          <t>HS261 [C101]</t>
+      <c r="D4" s="34" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="E4" s="16" t="inlineStr">
@@ -3164,6 +3373,7 @@
           <t>CS261 [C202]</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -3196,6 +3406,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -3203,14 +3414,9 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="31" t="inlineStr">
-        <is>
-          <t>ASD352 [C303]
-EC251 [C202]
-EC252 [C203]
-EC254 [C205]
-CS152 [C302]
-CS251 [C304]</t>
+      <c r="B6" s="15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C6" s="12" t="inlineStr">
@@ -3218,14 +3424,9 @@
           <t>CS264 [C204]</t>
         </is>
       </c>
-      <c r="D6" s="31" t="inlineStr">
-        <is>
-          <t>ASD352 [C303]
-EC251 [C202]
-EC252 [C203]
-EC254 [C205]
-CS152 [C302]
-CS251 [C304]</t>
+      <c r="D6" s="15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -3238,6 +3439,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -3250,14 +3452,9 @@
           <t>CS264 (Tutorial) [C204]</t>
         </is>
       </c>
-      <c r="C7" s="31" t="inlineStr">
-        <is>
-          <t>ASD352 (Tutorial) [C303]
-EC251 (Tutorial) [C202]
-EC252 (Tutorial) [C203]
-EC254 (Tutorial) [C205]
-CS152 (Tutorial) [C302]
-CS251 (Tutorial) [C304]</t>
+      <c r="C7" s="15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
@@ -3270,11 +3467,12 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="F7" s="33" t="inlineStr">
-        <is>
-          <t>HS261 (Tutorial) [C101]</t>
-        </is>
-      </c>
+      <c r="F7" s="34" t="inlineStr">
+        <is>
+          <t>HSS_B3 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -3284,7 +3482,7 @@
       </c>
       <c r="B8" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L207]</t>
+          <t>CS262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr">
@@ -3307,6 +3505,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -3316,7 +3515,7 @@
       </c>
       <c r="B9" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L207]</t>
+          <t>CS262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C9" s="11" t="inlineStr">
@@ -3339,6 +3538,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -3371,6 +3571,7 @@
           <t>MINOR: Design [C101]</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -3379,6 +3580,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -3387,6 +3589,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="17" t="inlineStr">
@@ -3399,6 +3602,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="18" t="inlineStr">
@@ -3411,6 +3615,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="19" t="inlineStr">
@@ -3433,8 +3638,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="20" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="20" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="20" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="21" t="inlineStr">
@@ -3457,8 +3675,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="22" t="inlineStr">
@@ -3481,8 +3712,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="23" t="inlineStr">
@@ -3505,8 +3749,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="inlineStr">
@@ -3529,8 +3786,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="25" t="inlineStr">
@@ -3553,8 +3823,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="26" t="inlineStr">
@@ -3577,8 +3860,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="n"/>
@@ -3587,6 +3883,7 @@
       <c r="D22" s="8" t="n"/>
       <c r="E22" s="8" t="n"/>
       <c r="F22" s="8" t="n"/>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="18" t="inlineStr">
@@ -3599,6 +3896,7 @@
       <c r="D23" s="8" t="n"/>
       <c r="E23" s="8" t="n"/>
       <c r="F23" s="8" t="n"/>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="19" t="inlineStr">
@@ -3631,6 +3929,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -3643,14 +3942,14 @@
           <t>Electronics Systems design-1</t>
         </is>
       </c>
-      <c r="C25" s="15" t="inlineStr">
+      <c r="C25" s="27" t="inlineStr">
         <is>
           <t>EC251</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 13:00-14:30 [L402], Wed 13:00-14:30 [L402]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -3663,6 +3962,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -3675,14 +3975,14 @@
           <t>Introduction of RFIC design</t>
         </is>
       </c>
-      <c r="C26" s="27" t="inlineStr">
+      <c r="C26" s="28" t="inlineStr">
         <is>
           <t>EC252</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 13:00-14:30 [L403], Wed 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -3695,6 +3995,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -3707,7 +4008,7 @@
           <t>Introduction to embedded signals</t>
         </is>
       </c>
-      <c r="C27" s="28" t="inlineStr">
+      <c r="C27" s="29" t="inlineStr">
         <is>
           <t>CS253</t>
         </is>
@@ -3727,6 +4028,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -3739,14 +4041,14 @@
           <t>Electronic Systems engineering</t>
         </is>
       </c>
-      <c r="C28" s="29" t="inlineStr">
+      <c r="C28" s="30" t="inlineStr">
         <is>
           <t>EC254</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
+          <t>Mon 13:00-14:30 [L404], Wed 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -3759,6 +4061,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -3771,14 +4074,14 @@
           <t>Data Science with Python</t>
         </is>
       </c>
-      <c r="C29" s="30" t="inlineStr">
+      <c r="C29" s="31" t="inlineStr">
         <is>
           <t>CS152</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C302], Wed 13:00-14:30 [C302]</t>
+          <t>Mon 13:00-14:30 [L405], Wed 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -3791,6 +4094,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -3803,14 +4107,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C30" s="31" t="inlineStr">
+      <c r="C30" s="32" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C303], Wed 13:00-14:30 [C303]</t>
+          <t>Mon 13:00-14:30 [C004], Wed 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -3823,6 +4127,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -3835,14 +4140,14 @@
           <t>2D Computer Graphics</t>
         </is>
       </c>
-      <c r="C31" s="32" t="inlineStr">
+      <c r="C31" s="33" t="inlineStr">
         <is>
           <t>CS251</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C304], Wed 13:00-14:30 [C304]</t>
+          <t>Mon 13:00-14:30 [L406], Wed 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -3855,10 +4160,11 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
@@ -3872,7 +4178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3885,7 +4191,8 @@
     <col width="29" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="29" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3919,6 +4226,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -3951,6 +4259,7 @@
           <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -3983,6 +4292,7 @@
           <t>MA261 [C004]</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -3990,9 +4300,9 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="33" t="inlineStr">
-        <is>
-          <t>HS261 [C101]</t>
+      <c r="B4" s="34" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -4000,9 +4310,9 @@
           <t>CS263 [C101]</t>
         </is>
       </c>
-      <c r="D4" s="33" t="inlineStr">
-        <is>
-          <t>HS261 [C101]</t>
+      <c r="D4" s="34" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="E4" s="16" t="inlineStr">
@@ -4015,6 +4325,7 @@
           <t>CS261 [C203]</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -4047,6 +4358,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -4054,14 +4366,9 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="31" t="inlineStr">
-        <is>
-          <t>ASD352 [C303]
-EC251 [C202]
-EC252 [C203]
-EC254 [C205]
-CS152 [C302]
-CS251 [C304]</t>
+      <c r="B6" s="15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C6" s="12" t="inlineStr">
@@ -4069,14 +4376,9 @@
           <t>CS264 [C205]</t>
         </is>
       </c>
-      <c r="D6" s="31" t="inlineStr">
-        <is>
-          <t>ASD352 [C303]
-EC251 [C202]
-EC252 [C203]
-EC254 [C205]
-CS152 [C302]
-CS251 [C304]</t>
+      <c r="D6" s="15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -4089,6 +4391,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -4101,14 +4404,9 @@
           <t>CS264 (Tutorial) [C205]</t>
         </is>
       </c>
-      <c r="C7" s="31" t="inlineStr">
-        <is>
-          <t>ASD352 (Tutorial) [C303]
-EC251 (Tutorial) [C202]
-EC252 (Tutorial) [C203]
-EC254 (Tutorial) [C205]
-CS152 (Tutorial) [C302]
-CS251 (Tutorial) [C304]</t>
+      <c r="C7" s="15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
@@ -4121,11 +4419,12 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="F7" s="33" t="inlineStr">
-        <is>
-          <t>HS261 (Tutorial) [C101]</t>
-        </is>
-      </c>
+      <c r="F7" s="34" t="inlineStr">
+        <is>
+          <t>HSS_B3 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -4135,7 +4434,7 @@
       </c>
       <c r="B8" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L106]</t>
+          <t>CS262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr">
@@ -4158,6 +4457,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -4167,7 +4467,7 @@
       </c>
       <c r="B9" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L106]</t>
+          <t>CS262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C9" s="11" t="inlineStr">
@@ -4190,6 +4490,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -4222,6 +4523,7 @@
           <t>MINOR: Design [C101]</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -4230,6 +4532,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -4238,6 +4541,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="17" t="inlineStr">
@@ -4250,6 +4554,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="18" t="inlineStr">
@@ -4262,6 +4567,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="19" t="inlineStr">
@@ -4284,8 +4590,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="20" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="20" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="20" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="21" t="inlineStr">
@@ -4308,8 +4627,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="22" t="inlineStr">
@@ -4332,8 +4664,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="23" t="inlineStr">
@@ -4356,8 +4701,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="inlineStr">
@@ -4380,8 +4738,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="25" t="inlineStr">
@@ -4404,8 +4775,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="26" t="inlineStr">
@@ -4428,8 +4812,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="n"/>
@@ -4438,6 +4835,7 @@
       <c r="D22" s="8" t="n"/>
       <c r="E22" s="8" t="n"/>
       <c r="F22" s="8" t="n"/>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="18" t="inlineStr">
@@ -4450,6 +4848,7 @@
       <c r="D23" s="8" t="n"/>
       <c r="E23" s="8" t="n"/>
       <c r="F23" s="8" t="n"/>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="19" t="inlineStr">
@@ -4482,6 +4881,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -4494,14 +4894,14 @@
           <t>Electronics Systems design-1</t>
         </is>
       </c>
-      <c r="C25" s="15" t="inlineStr">
+      <c r="C25" s="27" t="inlineStr">
         <is>
           <t>EC251</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 13:00-14:30 [L408], Wed 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -4514,6 +4914,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -4526,14 +4927,14 @@
           <t>Introduction of RFIC design</t>
         </is>
       </c>
-      <c r="C26" s="27" t="inlineStr">
+      <c r="C26" s="28" t="inlineStr">
         <is>
           <t>EC252</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -4546,6 +4947,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -4558,14 +4960,14 @@
           <t>Introduction to embedded signals</t>
         </is>
       </c>
-      <c r="C27" s="28" t="inlineStr">
+      <c r="C27" s="29" t="inlineStr">
         <is>
           <t>CS253</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 13:00-14:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -4578,6 +4980,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -4590,14 +4993,14 @@
           <t>Electronic Systems engineering</t>
         </is>
       </c>
-      <c r="C28" s="29" t="inlineStr">
+      <c r="C28" s="30" t="inlineStr">
         <is>
           <t>EC254</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -4610,6 +5013,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -4622,14 +5026,14 @@
           <t>Data Science with Python</t>
         </is>
       </c>
-      <c r="C29" s="30" t="inlineStr">
+      <c r="C29" s="31" t="inlineStr">
         <is>
           <t>CS152</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C302], Wed 13:00-14:30 [C302]</t>
+          <t>Mon 13:00-14:30 [C001], Wed 13:00-14:30 [C001]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -4642,6 +5046,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -4654,14 +5059,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C30" s="31" t="inlineStr">
+      <c r="C30" s="32" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C303], Wed 13:00-14:30 [C303]</t>
+          <t>Mon 13:00-14:30 [L407], Wed 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -4674,6 +5079,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -4686,14 +5092,14 @@
           <t>2D Computer Graphics</t>
         </is>
       </c>
-      <c r="C31" s="32" t="inlineStr">
+      <c r="C31" s="33" t="inlineStr">
         <is>
           <t>CS251</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C304], Wed 13:00-14:30 [C304]</t>
+          <t>Mon 13:00-14:30 [C003], Wed 13:00-14:30 [C003]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -4706,10 +5112,11 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
@@ -4723,7 +5130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4736,7 +5143,8 @@
     <col width="29" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="29" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4770,6 +5178,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -4802,6 +5211,7 @@
           <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -4834,6 +5244,7 @@
           <t>MA262 [C004]</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -4841,9 +5252,9 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="33" t="inlineStr">
-        <is>
-          <t>HS261 [C101]</t>
+      <c r="B4" s="34" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -4851,9 +5262,9 @@
           <t>CS263 [C102]</t>
         </is>
       </c>
-      <c r="D4" s="33" t="inlineStr">
-        <is>
-          <t>HS261 [C101]</t>
+      <c r="D4" s="34" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -4866,6 +5277,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -4898,6 +5310,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -4905,10 +5318,9 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="31" t="inlineStr">
-        <is>
-          <t>ASD352 [C303]
-CS253 [C204]</t>
+      <c r="B6" s="15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C6" s="12" t="inlineStr">
@@ -4916,10 +5328,9 @@
           <t>CS264 [C302]</t>
         </is>
       </c>
-      <c r="D6" s="31" t="inlineStr">
-        <is>
-          <t>ASD352 [C303]
-CS253 [C204]</t>
+      <c r="D6" s="15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -4932,6 +5343,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -4944,10 +5356,9 @@
           <t>CS264 (Tutorial) [C302]</t>
         </is>
       </c>
-      <c r="C7" s="31" t="inlineStr">
-        <is>
-          <t>ASD352 (Tutorial) [C303]
-CS253 (Tutorial) [C204]</t>
+      <c r="C7" s="15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
@@ -4960,11 +5371,12 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="F7" s="33" t="inlineStr">
-        <is>
-          <t>HS261 (Tutorial) [C101]</t>
-        </is>
-      </c>
+      <c r="F7" s="34" t="inlineStr">
+        <is>
+          <t>HSS_B3 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -4974,7 +5386,7 @@
       </c>
       <c r="B8" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L106]</t>
+          <t>CS262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr">
@@ -4997,6 +5409,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -5006,7 +5419,7 @@
       </c>
       <c r="B9" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L106]</t>
+          <t>CS262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C9" s="11" t="inlineStr">
@@ -5029,6 +5442,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -5061,6 +5475,7 @@
           <t>MINOR: Design [C101]</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -5069,6 +5484,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -5077,6 +5493,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="17" t="inlineStr">
@@ -5089,6 +5506,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="18" t="inlineStr">
@@ -5101,6 +5519,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="19" t="inlineStr">
@@ -5123,8 +5542,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="20" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="20" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="20" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="21" t="inlineStr">
@@ -5147,8 +5579,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="22" t="inlineStr">
@@ -5171,8 +5616,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="23" t="inlineStr">
@@ -5195,8 +5653,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="inlineStr">
@@ -5219,8 +5690,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="25" t="inlineStr">
@@ -5243,8 +5727,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="26" t="inlineStr">
@@ -5267,8 +5764,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="n"/>
@@ -5277,6 +5787,7 @@
       <c r="D22" s="8" t="n"/>
       <c r="E22" s="8" t="n"/>
       <c r="F22" s="8" t="n"/>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="18" t="inlineStr">
@@ -5289,6 +5800,7 @@
       <c r="D23" s="8" t="n"/>
       <c r="E23" s="8" t="n"/>
       <c r="F23" s="8" t="n"/>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="19" t="inlineStr">
@@ -5321,6 +5833,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -5333,14 +5846,14 @@
           <t>Electronics Systems design-1</t>
         </is>
       </c>
-      <c r="C25" s="15" t="inlineStr">
+      <c r="C25" s="27" t="inlineStr">
         <is>
           <t>EC251</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 13:00-14:30 [L402], Wed 13:00-14:30 [L402]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -5353,6 +5866,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -5365,14 +5879,14 @@
           <t>Introduction of RFIC design</t>
         </is>
       </c>
-      <c r="C26" s="27" t="inlineStr">
+      <c r="C26" s="28" t="inlineStr">
         <is>
           <t>EC252</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 13:00-14:30 [L403], Wed 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -5385,6 +5899,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -5397,7 +5912,7 @@
           <t>Introduction to embedded signals</t>
         </is>
       </c>
-      <c r="C27" s="28" t="inlineStr">
+      <c r="C27" s="29" t="inlineStr">
         <is>
           <t>CS253</t>
         </is>
@@ -5417,6 +5932,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -5429,14 +5945,14 @@
           <t>Electronic Systems engineering</t>
         </is>
       </c>
-      <c r="C28" s="29" t="inlineStr">
+      <c r="C28" s="30" t="inlineStr">
         <is>
           <t>EC254</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
+          <t>Mon 13:00-14:30 [L404], Wed 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -5449,6 +5965,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -5461,14 +5978,14 @@
           <t>Data Science with Python</t>
         </is>
       </c>
-      <c r="C29" s="30" t="inlineStr">
+      <c r="C29" s="31" t="inlineStr">
         <is>
           <t>CS152</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C302], Wed 13:00-14:30 [C302]</t>
+          <t>Mon 13:00-14:30 [L405], Wed 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -5481,6 +5998,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -5493,14 +6011,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C30" s="31" t="inlineStr">
+      <c r="C30" s="32" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C303], Wed 13:00-14:30 [C303]</t>
+          <t>Mon 13:00-14:30 [C004], Wed 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -5513,6 +6031,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -5525,14 +6044,14 @@
           <t>2D Computer Graphics</t>
         </is>
       </c>
-      <c r="C31" s="32" t="inlineStr">
+      <c r="C31" s="33" t="inlineStr">
         <is>
           <t>CS251</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C304], Wed 13:00-14:30 [C304]</t>
+          <t>Mon 13:00-14:30 [L406], Wed 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -5545,10 +6064,11 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
@@ -5562,7 +6082,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5575,7 +6095,8 @@
     <col width="29" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="29" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5609,6 +6130,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -5641,6 +6163,7 @@
           <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -5673,6 +6196,7 @@
           <t>MA262 [C004]</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -5680,9 +6204,9 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="33" t="inlineStr">
-        <is>
-          <t>HS261 [C101]</t>
+      <c r="B4" s="34" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -5690,9 +6214,9 @@
           <t>CS263 [C104]</t>
         </is>
       </c>
-      <c r="D4" s="33" t="inlineStr">
-        <is>
-          <t>HS261 [C101]</t>
+      <c r="D4" s="34" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -5705,6 +6229,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -5737,6 +6262,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -5744,10 +6270,9 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="31" t="inlineStr">
-        <is>
-          <t>ASD352 [C303]
-CS253 [C204]</t>
+      <c r="B6" s="15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C6" s="12" t="inlineStr">
@@ -5755,10 +6280,9 @@
           <t>CS264 [C303]</t>
         </is>
       </c>
-      <c r="D6" s="31" t="inlineStr">
-        <is>
-          <t>ASD352 [C303]
-CS253 [C204]</t>
+      <c r="D6" s="15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -5771,6 +6295,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -5783,10 +6308,9 @@
           <t>CS264 (Tutorial) [C303]</t>
         </is>
       </c>
-      <c r="C7" s="31" t="inlineStr">
-        <is>
-          <t>ASD352 (Tutorial) [C303]
-CS253 (Tutorial) [C204]</t>
+      <c r="C7" s="15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
@@ -5799,11 +6323,12 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="F7" s="33" t="inlineStr">
-        <is>
-          <t>HS261 (Tutorial) [C101]</t>
-        </is>
-      </c>
+      <c r="F7" s="34" t="inlineStr">
+        <is>
+          <t>HSS_B3 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -5813,7 +6338,7 @@
       </c>
       <c r="B8" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L106]</t>
+          <t>CS262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr">
@@ -5836,6 +6361,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -5845,7 +6371,7 @@
       </c>
       <c r="B9" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L106]</t>
+          <t>CS262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C9" s="11" t="inlineStr">
@@ -5868,6 +6394,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -5900,6 +6427,7 @@
           <t>MINOR: Design [C101]</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -5908,6 +6436,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -5916,6 +6445,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="17" t="inlineStr">
@@ -5928,6 +6458,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="18" t="inlineStr">
@@ -5940,6 +6471,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="19" t="inlineStr">
@@ -5962,8 +6494,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="20" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="20" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="20" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="21" t="inlineStr">
@@ -5986,8 +6531,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="22" t="inlineStr">
@@ -6010,8 +6568,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="23" t="inlineStr">
@@ -6034,8 +6605,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="inlineStr">
@@ -6058,8 +6642,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="25" t="inlineStr">
@@ -6082,8 +6679,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="26" t="inlineStr">
@@ -6106,8 +6716,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="n"/>
@@ -6116,6 +6739,7 @@
       <c r="D22" s="8" t="n"/>
       <c r="E22" s="8" t="n"/>
       <c r="F22" s="8" t="n"/>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="18" t="inlineStr">
@@ -6128,6 +6752,7 @@
       <c r="D23" s="8" t="n"/>
       <c r="E23" s="8" t="n"/>
       <c r="F23" s="8" t="n"/>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="19" t="inlineStr">
@@ -6160,6 +6785,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -6172,14 +6798,14 @@
           <t>Electronics Systems design-1</t>
         </is>
       </c>
-      <c r="C25" s="15" t="inlineStr">
+      <c r="C25" s="27" t="inlineStr">
         <is>
           <t>EC251</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
+          <t>Mon 13:00-14:30 [L408], Wed 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -6192,6 +6818,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -6204,14 +6831,14 @@
           <t>Introduction of RFIC design</t>
         </is>
       </c>
-      <c r="C26" s="27" t="inlineStr">
+      <c r="C26" s="28" t="inlineStr">
         <is>
           <t>EC252</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -6224,6 +6851,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -6236,14 +6864,14 @@
           <t>Introduction to embedded signals</t>
         </is>
       </c>
-      <c r="C27" s="28" t="inlineStr">
+      <c r="C27" s="29" t="inlineStr">
         <is>
           <t>CS253</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 13:00-14:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -6256,6 +6884,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -6268,14 +6897,14 @@
           <t>Electronic Systems engineering</t>
         </is>
       </c>
-      <c r="C28" s="29" t="inlineStr">
+      <c r="C28" s="30" t="inlineStr">
         <is>
           <t>EC254</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -6288,6 +6917,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -6300,14 +6930,14 @@
           <t>Data Science with Python</t>
         </is>
       </c>
-      <c r="C29" s="30" t="inlineStr">
+      <c r="C29" s="31" t="inlineStr">
         <is>
           <t>CS152</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C302], Wed 13:00-14:30 [C302]</t>
+          <t>Mon 13:00-14:30 [C001], Wed 13:00-14:30 [C001]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -6320,6 +6950,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -6332,14 +6963,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C30" s="31" t="inlineStr">
+      <c r="C30" s="32" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C303], Wed 13:00-14:30 [C303]</t>
+          <t>Mon 13:00-14:30 [L407], Wed 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -6352,6 +6983,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -6364,14 +6996,14 @@
           <t>2D Computer Graphics</t>
         </is>
       </c>
-      <c r="C31" s="32" t="inlineStr">
+      <c r="C31" s="33" t="inlineStr">
         <is>
           <t>CS251</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C304], Wed 13:00-14:30 [C304]</t>
+          <t>Mon 13:00-14:30 [C003], Wed 13:00-14:30 [C003]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -6384,10 +7016,11 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>

--- a/backend/output_timetables/sem3_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem3_CSE_timetable.xlsx
@@ -1588,7 +1588,7 @@
       </c>
       <c r="D8" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L106]</t>
+          <t>CS262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L106]</t>
+          <t>CS262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -2045,12 +2045,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L402], Wed 13:00-14:30 [L402]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2078,12 +2078,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L403], Wed 13:00-14:30 [L403]</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2111,12 +2111,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 13:00-14:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L404], Wed 13:00-14:30 [L404]</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2177,12 +2177,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L405], Wed 13:00-14:30 [L405]</t>
+          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2210,12 +2210,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C004], Wed 13:00-14:30 [C004]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2243,12 +2243,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L406], Wed 13:00-14:30 [L406]</t>
+          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="D8" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L106]</t>
+          <t>CS262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L106]</t>
+          <t>CS262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -2997,12 +2997,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L408], Wed 13:00-14:30 [L408]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3035,7 +3035,7 @@
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3096,12 +3096,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C101]</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3129,12 +3129,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C001], Wed 13:00-14:30 [C001]</t>
+          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3162,12 +3162,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L407], Wed 13:00-14:30 [L407]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3195,12 +3195,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C003], Wed 13:00-14:30 [C003]</t>
+          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3482,7 +3482,7 @@
       </c>
       <c r="B8" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L106]</t>
+          <t>CS262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr">
@@ -3515,7 +3515,7 @@
       </c>
       <c r="B9" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L106]</t>
+          <t>CS262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C9" s="11" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L402], Wed 13:00-14:30 [L402]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3982,12 +3982,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L403], Wed 13:00-14:30 [L403]</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -4015,12 +4015,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 13:00-14:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -4048,12 +4048,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L404], Wed 13:00-14:30 [L404]</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -4081,12 +4081,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L405], Wed 13:00-14:30 [L405]</t>
+          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4114,12 +4114,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C004], Wed 13:00-14:30 [C004]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4147,12 +4147,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L406], Wed 13:00-14:30 [L406]</t>
+          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="B8" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L207]</t>
+          <t>CS262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="B9" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L207]</t>
+          <t>CS262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C9" s="11" t="inlineStr">
@@ -4901,12 +4901,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L408], Wed 13:00-14:30 [L408]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -4939,7 +4939,7 @@
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -5000,12 +5000,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C101]</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -5033,12 +5033,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C001], Wed 13:00-14:30 [C001]</t>
+          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -5066,12 +5066,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L407], Wed 13:00-14:30 [L407]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -5099,12 +5099,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C003], Wed 13:00-14:30 [C003]</t>
+          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -5386,7 +5386,7 @@
       </c>
       <c r="B8" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L207]</t>
+          <t>CS262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr">
@@ -5419,7 +5419,7 @@
       </c>
       <c r="B9" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L207]</t>
+          <t>CS262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C9" s="11" t="inlineStr">
@@ -5853,12 +5853,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L402], Wed 13:00-14:30 [L402]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -5886,12 +5886,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L403], Wed 13:00-14:30 [L403]</t>
+          <t>Mon 13:00-14:30 [C102], Wed 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -5919,12 +5919,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
+          <t>Mon 13:00-14:30 [C104], Wed 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -5952,12 +5952,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L404], Wed 13:00-14:30 [L404]</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -5985,12 +5985,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L405], Wed 13:00-14:30 [L405]</t>
+          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -6018,12 +6018,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C004], Wed 13:00-14:30 [C004]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -6051,12 +6051,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L406], Wed 13:00-14:30 [L406]</t>
+          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -6338,7 +6338,7 @@
       </c>
       <c r="B8" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L207]</t>
+          <t>CS262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr">
@@ -6371,7 +6371,7 @@
       </c>
       <c r="B9" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L207]</t>
+          <t>CS262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C9" s="11" t="inlineStr">
@@ -6805,12 +6805,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L408], Wed 13:00-14:30 [L408]</t>
+          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -6904,12 +6904,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C101], Wed 13:00-14:30 [C101]</t>
+          <t>Mon 13:00-14:30 [C202], Wed 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -6937,12 +6937,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C001], Wed 13:00-14:30 [C001]</t>
+          <t>Mon 13:00-14:30 [C203], Wed 13:00-14:30 [C203]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -6970,12 +6970,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [L407], Wed 13:00-14:30 [L407]</t>
+          <t>Mon 13:00-14:30 [C204], Wed 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -7003,12 +7003,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30 [C003], Wed 13:00-14:30 [C003]</t>
+          <t>Mon 13:00-14:30 [C205], Wed 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Tue 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">

--- a/backend/output_timetables/sem3_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem3_CSE_timetable.xlsx
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L207]</t>
+          <t>CS263 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L207]</t>
+          <t>CS263 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="D8" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L207]</t>
+          <t>CS262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L207]</t>
+          <t>CS262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L207]</t>
+          <t>CS263 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L207]</t>
+          <t>CS263 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="D8" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L207]</t>
+          <t>CS262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L207]</t>
+          <t>CS262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
@@ -3482,12 +3482,12 @@
       </c>
       <c r="B8" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L207]</t>
+          <t>CS262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L207]</t>
+          <t>CS263 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D8" s="12" t="inlineStr">
@@ -3515,12 +3515,12 @@
       </c>
       <c r="B9" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L207]</t>
+          <t>CS262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L207]</t>
+          <t>CS263 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
@@ -4434,12 +4434,12 @@
       </c>
       <c r="B8" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L106]</t>
+          <t>CS262 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L106]</t>
+          <t>CS263 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" s="12" t="inlineStr">
@@ -4467,12 +4467,12 @@
       </c>
       <c r="B9" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L106]</t>
+          <t>CS262 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L106]</t>
+          <t>CS263 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
@@ -5188,7 +5188,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
@@ -5386,12 +5386,12 @@
       </c>
       <c r="B8" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L106]</t>
+          <t>CS262 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L106]</t>
+          <t>CS263 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" s="12" t="inlineStr">
@@ -5419,12 +5419,12 @@
       </c>
       <c r="B9" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L106]</t>
+          <t>CS262 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L106]</t>
+          <t>CS263 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -5452,7 +5452,7 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
@@ -6140,7 +6140,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
@@ -6338,12 +6338,12 @@
       </c>
       <c r="B8" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L106]</t>
+          <t>CS262 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L106]</t>
+          <t>CS263 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" s="12" t="inlineStr">
@@ -6371,12 +6371,12 @@
       </c>
       <c r="B9" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L106]</t>
+          <t>CS262 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L106]</t>
+          <t>CS263 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -6404,7 +6404,7 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">

--- a/backend/output_timetables/sem3_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem3_CSE_timetable.xlsx
@@ -754,7 +754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -766,7 +766,8 @@
     <col width="40" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="35" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -806,6 +807,11 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
           <t>Display Format</t>
         </is>
       </c>
@@ -833,6 +839,11 @@
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
+          <t>Suvadip Hazra</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
           <t>CS261 (3-0-0-4-2 | Pre-Mid Only)</t>
         </is>
       </c>
@@ -860,6 +871,11 @@
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
+          <t>Sunil P V, Vivekraj</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
           <t>CS262 (2-0-2-0-3 | Full Sem)</t>
         </is>
       </c>
@@ -887,6 +903,11 @@
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
+          <t>Malay, Pramod Y</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
           <t>CS263 (3-0-2-0-4 | Full Sem)</t>
         </is>
       </c>
@@ -914,6 +935,11 @@
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
+          <t>Prabhu Prasad B M</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
           <t>CS264 (3-1-0-0-4 | Full Sem)</t>
         </is>
       </c>
@@ -941,6 +967,11 @@
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
+          <t>Anand Barangi</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
           <t>MA261 (2-0-0-0-2 | Pre-Mid Only)</t>
         </is>
       </c>
@@ -968,6 +999,11 @@
       </c>
       <c r="E10" s="5" t="inlineStr">
         <is>
+          <t>Somen Bhattacharjee</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
           <t>MA262 (2-0-0-0-2 | Post-Mid Only)</t>
         </is>
       </c>
@@ -1002,6 +1038,11 @@
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
           <t>Display Format</t>
         </is>
       </c>
@@ -1029,6 +1070,11 @@
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
           <t>ASD352 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1056,6 +1102,11 @@
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
           <t>CS152 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1083,6 +1134,11 @@
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
+          <t>Vivekraj V K</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
           <t>CS251 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1110,6 +1166,11 @@
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
           <t>CS253 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1137,6 +1198,11 @@
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
+          <t>Pankaj</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
           <t>EC251 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1164,6 +1230,11 @@
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
           <t>EC252 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1191,6 +1262,11 @@
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
           <t>EC254 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1218,6 +1294,11 @@
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
+          <t>Aswath Babu H</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
           <t>HS261 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1245,6 +1326,11 @@
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
           <t>HS361 (1-0-0-0-1)</t>
         </is>
       </c>
@@ -1272,6 +1358,11 @@
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
+          <t>Jagadeesha R Bhat</t>
+        </is>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
           <t>HS362 (1-0-0-0-1)</t>
         </is>
       </c>
@@ -1299,6 +1390,11 @@
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
+          <t>Anushree Kini</t>
+        </is>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
           <t>HS363 (1-0-0-0-1)</t>
         </is>
       </c>
@@ -1326,6 +1422,11 @@
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
           <t>HS364 (1-0-0-0-1)</t>
         </is>
       </c>
@@ -1353,15 +1454,20 @@
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
           <t>HS365 (1-0-0-0-1)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1470,10 +1576,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1538,10 +1644,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>135</v>
+        <v>106.5</v>
       </c>
       <c r="E5" t="n">
-        <v>27</v>
+        <v>21.3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1674,10 +1780,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1742,10 +1848,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="E11" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1776,10 +1882,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -2014,10 +2120,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="E19" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2048,10 +2154,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2150,10 +2256,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>46.5</v>
+        <v>49.5</v>
       </c>
       <c r="E23" t="n">
-        <v>9.300000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2184,10 +2290,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E24" t="n">
-        <v>9.6</v>
+        <v>10.8</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2218,10 +2324,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2252,10 +2358,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2402,10 +2508,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2436,10 +2542,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -2470,10 +2576,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -2504,10 +2610,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -2538,10 +2644,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -2572,10 +2678,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -2606,10 +2712,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -2827,17 +2933,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -2851,7 +2957,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -2995,7 +3101,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -3067,7 +3173,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -3187,21 +3293,21 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -3211,7 +3317,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -3225,7 +3331,7 @@
         </is>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3691,21 +3797,21 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -3715,7 +3821,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -3729,7 +3835,7 @@
         </is>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3840,7 +3946,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -3859,7 +3965,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -3912,7 +4018,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -3931,7 +4037,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -3989,7 +4095,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -4003,7 +4109,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -4075,7 +4181,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -4147,7 +4253,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -4267,21 +4373,21 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -4291,7 +4397,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -4305,7 +4411,7 @@
         </is>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -4771,21 +4877,21 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -4795,7 +4901,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -4809,7 +4915,7 @@
         </is>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -4915,17 +5021,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -4939,7 +5045,7 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -4987,12 +5093,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -5011,7 +5117,7 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -5131,21 +5237,21 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -5155,7 +5261,7 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -5169,7 +5275,7 @@
         </is>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -5635,21 +5741,21 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -5659,7 +5765,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -5673,7 +5779,7 @@
         </is>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -5784,7 +5890,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -5803,7 +5909,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -5923,21 +6029,21 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -5947,7 +6053,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -5961,7 +6067,7 @@
         </is>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -6427,21 +6533,21 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -6451,7 +6557,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -6465,7 +6571,7 @@
         </is>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -6576,7 +6682,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -6595,7 +6701,7 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -6715,21 +6821,21 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -6739,7 +6845,7 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -6753,7 +6859,7 @@
         </is>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -7219,21 +7325,21 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -7243,7 +7349,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -7257,7 +7363,7 @@
         </is>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -7296,7 +7402,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -7315,7 +7421,7 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -9183,7 +9289,7 @@
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -9300,12 +9406,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J92" t="b">
@@ -9319,7 +9425,7 @@
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -9663,7 +9769,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -9739,7 +9845,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -9792,12 +9898,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J99" t="b">
@@ -9815,7 +9921,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -9863,15 +9969,19 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J100" t="b">
         <v>0</v>
       </c>
@@ -9887,7 +9997,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -9935,17 +10045,17 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J101" t="b">
@@ -9963,7 +10073,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -10039,7 +10149,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -10097,7 +10207,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J103" t="b">
@@ -10115,7 +10225,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -10173,7 +10283,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J104" t="b">
@@ -10191,7 +10301,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -10249,7 +10359,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J105" t="b">
@@ -10267,7 +10377,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -10320,7 +10430,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -10343,7 +10453,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -10396,7 +10506,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -10419,7 +10529,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -10472,12 +10582,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J108" t="b">
@@ -10495,7 +10605,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -10553,7 +10663,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J109" t="b">
@@ -10567,7 +10677,7 @@
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -10639,7 +10749,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -10687,19 +10797,15 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="b">
         <v>0</v>
       </c>
@@ -10715,7 +10821,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -10763,17 +10869,17 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J112" t="b">
@@ -10791,7 +10897,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -10839,12 +10945,12 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -10867,7 +10973,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
@@ -10915,17 +11021,17 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J114" t="b">
@@ -10943,7 +11049,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -10996,7 +11102,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -11019,7 +11125,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -11163,7 +11269,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
@@ -11379,7 +11485,7 @@
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
@@ -11499,21 +11605,21 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -11523,7 +11629,7 @@
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
@@ -11537,7 +11643,7 @@
         </is>
       </c>
       <c r="P122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -12003,21 +12109,21 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12027,7 +12133,7 @@
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
@@ -12041,7 +12147,7 @@
         </is>
       </c>
       <c r="P129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -12171,7 +12277,7 @@
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -12224,7 +12330,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -12243,7 +12349,7 @@
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
@@ -12315,7 +12421,7 @@
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
@@ -12459,7 +12565,7 @@
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -12579,21 +12685,21 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -12603,7 +12709,7 @@
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
@@ -12617,7 +12723,7 @@
         </is>
       </c>
       <c r="P137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -13083,21 +13189,21 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13107,7 +13213,7 @@
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
@@ -13121,7 +13227,7 @@
         </is>
       </c>
       <c r="P144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -13251,7 +13357,7 @@
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
@@ -13299,12 +13405,12 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -13323,7 +13429,7 @@
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
@@ -13443,21 +13549,21 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -13467,7 +13573,7 @@
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
@@ -13481,7 +13587,7 @@
         </is>
       </c>
       <c r="P149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -13947,21 +14053,21 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -13971,7 +14077,7 @@
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
@@ -13985,7 +14091,7 @@
         </is>
       </c>
       <c r="P156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -14096,7 +14202,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -14115,7 +14221,7 @@
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
@@ -14235,21 +14341,21 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -14259,7 +14365,7 @@
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
@@ -14273,7 +14379,7 @@
         </is>
       </c>
       <c r="P160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -14739,21 +14845,21 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -14763,7 +14869,7 @@
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N167" t="inlineStr">
@@ -14777,7 +14883,7 @@
         </is>
       </c>
       <c r="P167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -14888,7 +14994,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -14907,7 +15013,7 @@
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
@@ -15027,21 +15133,21 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -15051,7 +15157,7 @@
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
@@ -15065,7 +15171,7 @@
         </is>
       </c>
       <c r="P171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -15531,21 +15637,21 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -15555,7 +15661,7 @@
       <c r="L178" t="inlineStr"/>
       <c r="M178" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
@@ -15569,7 +15675,7 @@
         </is>
       </c>
       <c r="P178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -15608,7 +15714,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -15627,7 +15733,7 @@
       <c r="L179" t="inlineStr"/>
       <c r="M179" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
@@ -16881,7 +16987,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J196" t="b">
@@ -16895,7 +17001,7 @@
       <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N196" t="inlineStr">
@@ -17495,7 +17601,7 @@
       <c r="L204" t="inlineStr"/>
       <c r="M204" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N204" t="inlineStr">
@@ -17617,7 +17723,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J206" t="b">
@@ -17631,7 +17737,7 @@
       <c r="L206" t="inlineStr"/>
       <c r="M206" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
@@ -17975,7 +18081,7 @@
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N211" t="inlineStr">
@@ -18051,7 +18157,7 @@
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N212" t="inlineStr">
@@ -18104,12 +18210,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J213" t="b">
@@ -18127,7 +18233,7 @@
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N213" t="inlineStr">
@@ -18175,15 +18281,19 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I214" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J214" t="b">
         <v>0</v>
       </c>
@@ -18199,7 +18309,7 @@
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N214" t="inlineStr">
@@ -18247,17 +18357,17 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J215" t="b">
@@ -18275,7 +18385,7 @@
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N215" t="inlineStr">
@@ -18351,7 +18461,7 @@
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N216" t="inlineStr">
@@ -18409,7 +18519,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J217" t="b">
@@ -18427,7 +18537,7 @@
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N217" t="inlineStr">
@@ -18485,7 +18595,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J218" t="b">
@@ -18503,7 +18613,7 @@
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N218" t="inlineStr">
@@ -18561,7 +18671,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J219" t="b">
@@ -18579,7 +18689,7 @@
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N219" t="inlineStr">
@@ -18632,7 +18742,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -18655,7 +18765,7 @@
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N220" t="inlineStr">
@@ -18708,7 +18818,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -18731,7 +18841,7 @@
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N221" t="inlineStr">
@@ -18784,12 +18894,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J222" t="b">
@@ -18807,7 +18917,7 @@
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N222" t="inlineStr">
@@ -18865,7 +18975,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J223" t="b">
@@ -18879,7 +18989,7 @@
       <c r="L223" t="inlineStr"/>
       <c r="M223" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N223" t="inlineStr">
@@ -18951,7 +19061,7 @@
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N224" t="inlineStr">
@@ -18999,19 +19109,15 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I225" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="b">
         <v>0</v>
       </c>
@@ -19027,7 +19133,7 @@
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N225" t="inlineStr">
@@ -19075,17 +19181,17 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J226" t="b">
@@ -19103,7 +19209,7 @@
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N226" t="inlineStr">
@@ -19151,12 +19257,12 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -19179,7 +19285,7 @@
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N227" t="inlineStr">
@@ -19227,17 +19333,17 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J228" t="b">
@@ -19255,7 +19361,7 @@
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N228" t="inlineStr">
@@ -19308,7 +19414,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -19331,7 +19437,7 @@
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N229" t="inlineStr">
@@ -19397,7 +19503,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C203, C204, C303</t>
+          <t>C101, C304, C305</t>
         </is>
       </c>
     </row>
@@ -19414,7 +19520,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C204, C205, C304</t>
+          <t>C001, C102, C305</t>
         </is>
       </c>
     </row>
@@ -19431,7 +19537,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C205, C302, C305</t>
+          <t>C002, C104, L402</t>
         </is>
       </c>
     </row>
@@ -19448,7 +19554,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C001, C302, L402</t>
+          <t>C003, C204, L403</t>
         </is>
       </c>
     </row>
@@ -19465,7 +19571,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C003, C303, L403</t>
+          <t>C004, C205, L404</t>
         </is>
       </c>
     </row>
@@ -19482,7 +19588,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C304, L402, L406</t>
+          <t>C302, L402, L405</t>
         </is>
       </c>
     </row>
@@ -19717,12 +19823,12 @@
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>CS262 [C001]</t>
+          <t>CS262 [C202]</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>CS263 [C101]</t>
+          <t>CS263 [C202]</t>
         </is>
       </c>
       <c r="F3" s="12" t="inlineStr">
@@ -19750,7 +19856,7 @@
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>CS263 [C101]</t>
+          <t>CS263 [C202]</t>
         </is>
       </c>
       <c r="E4" s="12" t="inlineStr">
@@ -19811,7 +19917,7 @@
       </c>
       <c r="C6" s="16" t="inlineStr">
         <is>
-          <t>CS261 [C204]</t>
+          <t>CS261 [C202]</t>
         </is>
       </c>
       <c r="D6" s="15" t="inlineStr">
@@ -19821,7 +19927,7 @@
       </c>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L107]</t>
+          <t>CS263 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -19854,7 +19960,7 @@
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L107]</t>
+          <t>CS263 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
@@ -19872,17 +19978,17 @@
       </c>
       <c r="B8" s="16" t="inlineStr">
         <is>
-          <t>CS261 [C204]</t>
+          <t>CS261 [C202]</t>
         </is>
       </c>
       <c r="C8" s="10" t="inlineStr">
         <is>
-          <t>CS262 [C104]</t>
+          <t>CS262 [C202]</t>
         </is>
       </c>
       <c r="D8" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L107]</t>
+          <t>CS262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -19915,7 +20021,7 @@
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L107]</t>
+          <t>CS262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -20669,7 +20775,7 @@
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>CS262 [C002]</t>
+          <t>CS262 [C203]</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
@@ -20702,7 +20808,7 @@
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>CS263 [C102]</t>
+          <t>CS263 [C203]</t>
         </is>
       </c>
       <c r="E4" s="12" t="inlineStr">
@@ -20763,7 +20869,7 @@
       </c>
       <c r="C6" s="16" t="inlineStr">
         <is>
-          <t>CS261 [C102]</t>
+          <t>CS261 [C203]</t>
         </is>
       </c>
       <c r="D6" s="15" t="inlineStr">
@@ -20773,7 +20879,7 @@
       </c>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L107]</t>
+          <t>CS263 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -20806,7 +20912,7 @@
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L107]</t>
+          <t>CS263 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
@@ -20824,17 +20930,17 @@
       </c>
       <c r="B8" s="16" t="inlineStr">
         <is>
-          <t>CS261 [C205]</t>
+          <t>CS261 [C203]</t>
         </is>
       </c>
       <c r="C8" s="10" t="inlineStr">
         <is>
-          <t>CS262 [C202]</t>
+          <t>CS262 [C203]</t>
         </is>
       </c>
       <c r="D8" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L107]</t>
+          <t>CS262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -20867,7 +20973,7 @@
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L107]</t>
+          <t>CS262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -21611,17 +21717,17 @@
       </c>
       <c r="B3" s="10" t="inlineStr">
         <is>
-          <t>CS262 [C001]</t>
+          <t>CS262 [C202]</t>
         </is>
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>CS262 [C205]</t>
+          <t>CS262 [C202]</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr">
         <is>
-          <t>CS263 [C003]</t>
+          <t>CS263 [C204]</t>
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
@@ -21649,7 +21755,7 @@
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>CS263 [C101]</t>
+          <t>CS263 [C202]</t>
         </is>
       </c>
       <c r="D4" s="34" t="inlineStr">
@@ -21664,7 +21770,7 @@
       </c>
       <c r="F4" s="16" t="inlineStr">
         <is>
-          <t>CS261 [C204]</t>
+          <t>CS261 [C202]</t>
         </is>
       </c>
       <c r="G4" s="8" t="n"/>
@@ -21715,7 +21821,7 @@
       </c>
       <c r="C6" s="12" t="inlineStr">
         <is>
-          <t>CS264 [C202]</t>
+          <t>CS264 [C204]</t>
         </is>
       </c>
       <c r="D6" s="15" t="inlineStr">
@@ -21776,12 +21882,12 @@
       </c>
       <c r="B8" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L107]</t>
+          <t>CS262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L107]</t>
+          <t>CS263 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D8" s="12" t="inlineStr">
@@ -21809,12 +21915,12 @@
       </c>
       <c r="B9" s="10" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L107]</t>
+          <t>CS262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L107]</t>
+          <t>CS263 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -22563,17 +22669,17 @@
       </c>
       <c r="B3" s="10" t="inlineStr">
         <is>
-          <t>CS262 [C002]</t>
+          <t>CS262 [C101]</t>
         </is>
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>CS262 [C302]</t>
+          <t>CS262 [C101]</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr">
         <is>
-          <t>CS263 [C004]</t>
+          <t>CS263 [C205]</t>
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
@@ -22601,7 +22707,7 @@
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>CS263 [C204]</t>
+          <t>CS263 [C101]</t>
         </is>
       </c>
       <c r="D4" s="34" t="inlineStr">
@@ -22616,7 +22722,7 @@
       </c>
       <c r="F4" s="16" t="inlineStr">
         <is>
-          <t>CS261 [C202]</t>
+          <t>CS261 [C203]</t>
         </is>
       </c>
       <c r="G4" s="8" t="n"/>
@@ -22667,7 +22773,7 @@
       </c>
       <c r="C6" s="12" t="inlineStr">
         <is>
-          <t>CS264 [C104]</t>
+          <t>CS264 [C205]</t>
         </is>
       </c>
       <c r="D6" s="15" t="inlineStr">
@@ -22733,7 +22839,7 @@
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L106]</t>
+          <t>CS263 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" s="12" t="inlineStr">
@@ -22766,7 +22872,7 @@
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L106]</t>
+          <t>CS263 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -23515,17 +23621,17 @@
       </c>
       <c r="B3" s="10" t="inlineStr">
         <is>
-          <t>CS262 [C003]</t>
+          <t>CS262 [C102]</t>
         </is>
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>CS262 [C202]</t>
+          <t>CS262 [C102]</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr">
         <is>
-          <t>CS263 [L402]</t>
+          <t>CS263 [C302]</t>
         </is>
       </c>
       <c r="E3" s="13" t="inlineStr">
@@ -23553,7 +23659,7 @@
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>CS263 [C205]</t>
+          <t>CS263 [C102]</t>
         </is>
       </c>
       <c r="D4" s="34" t="inlineStr">
@@ -23619,7 +23725,7 @@
       </c>
       <c r="C6" s="12" t="inlineStr">
         <is>
-          <t>CS264 [C203]</t>
+          <t>CS264 [C302]</t>
         </is>
       </c>
       <c r="D6" s="15" t="inlineStr">
@@ -23685,12 +23791,12 @@
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L106]</t>
+          <t>CS263 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" s="12" t="inlineStr">
         <is>
-          <t>CS264 [C205]</t>
+          <t>CS264 [C204]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -23718,7 +23824,7 @@
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L106]</t>
+          <t>CS263 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -24467,17 +24573,17 @@
       </c>
       <c r="B3" s="10" t="inlineStr">
         <is>
-          <t>CS262 [L402]</t>
+          <t>CS262 [C104]</t>
         </is>
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>CS262 [C304]</t>
+          <t>CS262 [C104]</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr">
         <is>
-          <t>CS263 [L403]</t>
+          <t>CS263 [C303]</t>
         </is>
       </c>
       <c r="E3" s="13" t="inlineStr">
@@ -24505,7 +24611,7 @@
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>CS263 [C303]</t>
+          <t>CS263 [C104]</t>
         </is>
       </c>
       <c r="D4" s="34" t="inlineStr">
@@ -24571,7 +24677,7 @@
       </c>
       <c r="C6" s="12" t="inlineStr">
         <is>
-          <t>CS264 [C302]</t>
+          <t>CS264 [C303]</t>
         </is>
       </c>
       <c r="D6" s="15" t="inlineStr">
@@ -24637,12 +24743,12 @@
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L106]</t>
+          <t>CS263 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" s="12" t="inlineStr">
         <is>
-          <t>CS264 [C302]</t>
+          <t>CS264 [C205]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -24670,7 +24776,7 @@
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L106]</t>
+          <t>CS263 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -25408,27 +25514,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS262 [L407]</t>
+          <t>CS262 [C003]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS262 [L407]</t>
+          <t>CS262 [C304]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS263 [L405]</t>
+          <t>CS263 [C004]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA262 [L406]</t>
+          <t>MA262 [C303]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA262 [L406]</t>
+          <t>MA262 [C303]</t>
         </is>
       </c>
     </row>
@@ -25445,7 +25551,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS263 [L402]</t>
+          <t>CS263 [C304]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -25509,7 +25615,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS264 [C303]</t>
+          <t>CS264 [C302]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -25568,17 +25674,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L106]</t>
+          <t>CS262 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L207]</t>
+          <t>CS263 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS264 [C002]</t>
+          <t>CS264 [C104]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -25600,12 +25706,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L106]</t>
+          <t>CS262 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L207]</t>
+          <t>CS263 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -25712,27 +25818,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [C004]</t>
+          <t>Course Name [L403]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C004]</t>
+          <t>L-T-P-S-C [L403]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [C004]</t>
+          <t>Term Type [L403]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [C004]</t>
+          <t>Lectures Hrs [L403]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [C004]</t>
+          <t>Tutorials Hrs [L403]</t>
         </is>
       </c>
     </row>
@@ -25960,27 +26066,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Course [C004]</t>
+          <t>Course [L403]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Course Code [C004]</t>
+          <t>Course Code [L403]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [C004]</t>
+          <t>Lecture Slot - Classroom [L403]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [C004]</t>
+          <t>Tutorial Slot - Classroom [L403]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C004]</t>
+          <t>L-T-P-S-C [L403]</t>
         </is>
       </c>
     </row>
@@ -26299,27 +26405,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS262 [L408]</t>
+          <t>CS262 [L402]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS262 [L408]</t>
+          <t>CS262 [L402]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS263 [L406]</t>
+          <t>CS263 [L402]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA262 [L406]</t>
+          <t>MA262 [C303]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA262 [L406]</t>
+          <t>MA262 [C303]</t>
         </is>
       </c>
     </row>
@@ -26336,7 +26442,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS263 [L404]</t>
+          <t>CS263 [C305]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -26400,7 +26506,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS264 [C304]</t>
+          <t>CS264 [C303]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -26469,7 +26575,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS264 [C003]</t>
+          <t>CS264 [C302]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -26491,12 +26597,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L106]</t>
+          <t>CS262 (Lab) [L208]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L207]</t>
+          <t>CS263 (Lab) [L208]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -26603,27 +26709,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [C004]</t>
+          <t>Course Name [L404]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C004]</t>
+          <t>L-T-P-S-C [L404]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [C004]</t>
+          <t>Term Type [L404]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [C004]</t>
+          <t>Lectures Hrs [L404]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [C004]</t>
+          <t>Tutorials Hrs [L404]</t>
         </is>
       </c>
     </row>
@@ -26851,27 +26957,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Course [C004]</t>
+          <t>Course [L404]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Course Code [C004]</t>
+          <t>Course Code [L404]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [C004]</t>
+          <t>Lecture Slot - Classroom [L404]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [C004]</t>
+          <t>Tutorial Slot - Classroom [L404]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C004]</t>
+          <t>L-T-P-S-C [L404]</t>
         </is>
       </c>
     </row>
